--- a/LSA Data Dictionary FY2022.xlsx
+++ b/LSA Data Dictionary FY2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/LSA2022/Minimal Changes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{C0152BC4-A70F-4ABE-8900-222A861E7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6F24A7-AE20-431B-8793-985494E95E06}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{C0152BC4-A70F-4ABE-8900-222A861E7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319DC54D-8342-4D72-856D-843DAD47A1FF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3735" windowWidth="29040" windowHeight="15840" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-28800" yWindow="-2100" windowWidth="20895" windowHeight="13230" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -30566,7 +30566,7 @@
         <v>655</v>
       </c>
       <c r="C85" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D85" s="14">
         <v>10</v>
@@ -30592,7 +30592,7 @@
         <v>656</v>
       </c>
       <c r="C86" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D86" s="14">
         <v>10</v>
@@ -30618,7 +30618,7 @@
         <v>657</v>
       </c>
       <c r="C87" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D87" s="14">
         <v>10</v>
@@ -30644,7 +30644,7 @@
         <v>658</v>
       </c>
       <c r="C88" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D88" s="14">
         <v>10</v>

--- a/LSA Data Dictionary FY2022.xlsx
+++ b/LSA Data Dictionary FY2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\betfilesrv02.corp.abtassoc.com\redirected$\BrownJ\Documents\LSAFY22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{C0152BC4-A70F-4ABE-8900-222A861E7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319DC54D-8342-4D72-856D-843DAD47A1FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81A5348-EE0F-448C-A7C5-44A9D8F1D6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-2100" windowWidth="20895" windowHeight="13230" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="28680" yWindow="3840" windowWidth="24240" windowHeight="13140" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$A$1:$I$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$D$641</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$D$642</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1084">
   <si>
     <t>File ID</t>
   </si>
@@ -3834,17 +3834,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.86328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="69.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.73046875" style="3"/>
+    <col min="1" max="1" width="6.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="69.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>13</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -4048,22 +4048,22 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="89.265625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="48.265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.73046875" style="10"/>
+    <col min="4" max="4" width="18.77734375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="89.21875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="48.21875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>2</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>2</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>2</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>2</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>2</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>2</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>2</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>2</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>2</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>2</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>2</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>2</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>2</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>2</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>2</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>2</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>2</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>2</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>2</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>2</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>2</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>2</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>2</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>2</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>2</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>2</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>2</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>2</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>2</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>2</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>2</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>2</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>2</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>2</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>2</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>2</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>2</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>2</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>2</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>2</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>2</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>2</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>2</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>2</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>2</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>2</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>2</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>2</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>2</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>2</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>2</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>2</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>2</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>2</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>2</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>2</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>2</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>2</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>2</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>2</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>2</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>2</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>2</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>2</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>2</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>2</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>3</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>3</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>3</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>3</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>3</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>3</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="171" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>3</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>3</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>3</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>3</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>3</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>3</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>3</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>3</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>3</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>3</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>3</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>3</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>3</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>3</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>3</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>3</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>3</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>3</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>3</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>3</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>3</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>3</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>3</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>3</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>3</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>3</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>3</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>3</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>3</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>3</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>3</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>3</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>3</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>3</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>3</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>3</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>3</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>3</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>3</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>3</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>3</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>3</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>3</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>3</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>3</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>3</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>3</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>3</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>3</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>3</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>3</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>3</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>4</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>4</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>4</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>4</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>4</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>4</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>4</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>4</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>4</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>4</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>4</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>4</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>4</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>4</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>4</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>4</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>4</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>4</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>5</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>5</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>5</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>5</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>5</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>5</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>5</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>5</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>5</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>10</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>10</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>10</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>10</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>10</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>10</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>10</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>10</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>10</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>11</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>11</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>11</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>11</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>11</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>11</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>11</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>11</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>11</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>11</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>11</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>11</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>11</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>11</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>11</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>11</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>11</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>11</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>11</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>11</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>12</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>12</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>12</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>12</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>12</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>12</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>12</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>12</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>12</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>12</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>12</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>12</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>13</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="11">
         <v>13</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>13</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>13</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>13</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>13</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>13</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>13</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>13</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>13</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>13</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>13</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="11">
         <v>13</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
         <v>13</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
         <v>13</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>14</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>14</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>14</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>14</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>14</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
         <v>14</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>14</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
         <v>14</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>14</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>14</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>14</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
         <v>14</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>14</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>14</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>14</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>14</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>14</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>14</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>14</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>14</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
         <v>14</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
         <v>14</v>
       </c>
@@ -11316,18 +11316,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:XFC643"/>
+  <dimension ref="A1:XFC644"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="D640" sqref="D640"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="16"/>
-    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="16"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>921</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -11369,7 +11371,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -11383,7 +11385,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -11411,7 +11413,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -11425,7 +11427,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -11439,7 +11441,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>3</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>3</v>
       </c>
@@ -11467,7 +11469,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>3</v>
       </c>
@@ -11495,7 +11497,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>3</v>
       </c>
@@ -11509,7 +11511,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -11523,7 +11525,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>3</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -11551,7 +11553,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>4</v>
       </c>
@@ -11565,7 +11567,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>4</v>
       </c>
@@ -11579,7 +11581,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>4</v>
       </c>
@@ -11593,7 +11595,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>4</v>
       </c>
@@ -11607,7 +11609,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>5</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>5</v>
       </c>
@@ -11635,7 +11637,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>6</v>
       </c>
@@ -11649,7 +11651,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>6</v>
       </c>
@@ -11663,7 +11665,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>6</v>
       </c>
@@ -11677,7 +11679,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>6</v>
       </c>
@@ -11691,7 +11693,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>6</v>
       </c>
@@ -11705,7 +11707,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>6</v>
       </c>
@@ -11719,7 +11721,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>6</v>
       </c>
@@ -11733,7 +11735,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>6</v>
       </c>
@@ -11747,7 +11749,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>6</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>6</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>6</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>6</v>
       </c>
@@ -11803,7 +11805,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>6</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>6</v>
       </c>
@@ -11831,7 +11833,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>6</v>
       </c>
@@ -11845,7 +11847,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>6</v>
       </c>
@@ -11859,7 +11861,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>6</v>
       </c>
@@ -11873,7 +11875,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>6</v>
       </c>
@@ -11887,7 +11889,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>6</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>6</v>
       </c>
@@ -11915,7 +11917,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>6</v>
       </c>
@@ -11929,7 +11931,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>6</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>6</v>
       </c>
@@ -11957,7 +11959,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>6</v>
       </c>
@@ -11971,7 +11973,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>6</v>
       </c>
@@ -11985,7 +11987,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>6</v>
       </c>
@@ -11999,7 +12001,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>6</v>
       </c>
@@ -12013,7 +12015,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>6</v>
       </c>
@@ -12027,7 +12029,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>6</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>6</v>
       </c>
@@ -12055,7 +12057,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>6</v>
       </c>
@@ -12069,7 +12071,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>6</v>
       </c>
@@ -12083,7 +12085,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>6</v>
       </c>
@@ -12097,7 +12099,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>6</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>7</v>
       </c>
@@ -12125,7 +12127,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>7</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>7</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>7</v>
       </c>
@@ -12167,7 +12169,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>7</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>8</v>
       </c>
@@ -12195,7 +12197,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>8</v>
       </c>
@@ -12209,7 +12211,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>8</v>
       </c>
@@ -12223,7 +12225,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>8</v>
       </c>
@@ -12237,7 +12239,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>9</v>
       </c>
@@ -12251,7 +12253,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>9</v>
       </c>
@@ -12265,7 +12267,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>9</v>
       </c>
@@ -12279,7 +12281,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>9</v>
       </c>
@@ -12293,7 +12295,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>9</v>
       </c>
@@ -12307,7 +12309,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>10</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>10</v>
       </c>
@@ -12335,7 +12337,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>10</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>10</v>
       </c>
@@ -12363,7 +12365,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>10</v>
       </c>
@@ -12377,7 +12379,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>10</v>
       </c>
@@ -12391,7 +12393,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>11</v>
       </c>
@@ -12405,7 +12407,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>11</v>
       </c>
@@ -12419,7 +12421,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>11</v>
       </c>
@@ -12433,7 +12435,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>11</v>
       </c>
@@ -12447,7 +12449,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>12</v>
       </c>
@@ -12461,7 +12463,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>12</v>
       </c>
@@ -12475,7 +12477,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>12</v>
       </c>
@@ -12489,7 +12491,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>12</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>12</v>
       </c>
@@ -12517,7 +12519,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>12</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>12</v>
       </c>
@@ -12545,7 +12547,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>12</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>12</v>
       </c>
@@ -12573,7 +12575,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>12</v>
       </c>
@@ -12587,7 +12589,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>12</v>
       </c>
@@ -12601,7 +12603,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>13</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>13</v>
       </c>
@@ -12629,7 +12631,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>13</v>
       </c>
@@ -12643,7 +12645,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>13</v>
       </c>
@@ -12657,7 +12659,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>13</v>
       </c>
@@ -12671,7 +12673,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>14</v>
       </c>
@@ -12685,7 +12687,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>14</v>
       </c>
@@ -12699,7 +12701,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>14</v>
       </c>
@@ -12713,7 +12715,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>14</v>
       </c>
@@ -12727,7 +12729,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>14</v>
       </c>
@@ -12741,7 +12743,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>14</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>14</v>
       </c>
@@ -12769,7 +12771,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>14</v>
       </c>
@@ -12783,7 +12785,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>14</v>
       </c>
@@ -12797,7 +12799,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>14</v>
       </c>
@@ -12811,7 +12813,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>14</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>14</v>
       </c>
@@ -12839,7 +12841,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>14</v>
       </c>
@@ -12853,7 +12855,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>14</v>
       </c>
@@ -12867,7 +12869,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>14</v>
       </c>
@@ -12881,7 +12883,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>14</v>
       </c>
@@ -12895,7 +12897,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>14</v>
       </c>
@@ -12909,7 +12911,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>14</v>
       </c>
@@ -12923,7 +12925,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>15</v>
       </c>
@@ -12937,7 +12939,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>15</v>
       </c>
@@ -12951,7 +12953,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>15</v>
       </c>
@@ -12965,7 +12967,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>15</v>
       </c>
@@ -12979,7 +12981,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>15</v>
       </c>
@@ -12993,7 +12995,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>15</v>
       </c>
@@ -13007,7 +13009,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>15</v>
       </c>
@@ -13021,7 +13023,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>15</v>
       </c>
@@ -13035,7 +13037,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>15</v>
       </c>
@@ -13049,7 +13051,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>15</v>
       </c>
@@ -13063,7 +13065,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>15</v>
       </c>
@@ -13077,7 +13079,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>15</v>
       </c>
@@ -13091,7 +13093,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>15</v>
       </c>
@@ -13105,7 +13107,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>15</v>
       </c>
@@ -13119,7 +13121,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>15</v>
       </c>
@@ -13133,7 +13135,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>15</v>
       </c>
@@ -13147,7 +13149,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>15</v>
       </c>
@@ -13161,7 +13163,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>16</v>
       </c>
@@ -13175,7 +13177,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>16</v>
       </c>
@@ -13189,7 +13191,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>16</v>
       </c>
@@ -13203,7 +13205,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>16</v>
       </c>
@@ -13217,7 +13219,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>16</v>
       </c>
@@ -13231,7 +13233,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>16</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>16</v>
       </c>
@@ -13259,7 +13261,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>16</v>
       </c>
@@ -13273,7 +13275,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>16</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>16</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>16</v>
       </c>
@@ -13315,7 +13317,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>17</v>
       </c>
@@ -13329,7 +13331,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>17</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>17</v>
       </c>
@@ -13357,7 +13359,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>17</v>
       </c>
@@ -13371,7 +13373,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>17</v>
       </c>
@@ -13385,7 +13387,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>17</v>
       </c>
@@ -13399,7 +13401,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>17</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>17</v>
       </c>
@@ -13427,7 +13429,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>17</v>
       </c>
@@ -13441,7 +13443,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>17</v>
       </c>
@@ -13455,7 +13457,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>17</v>
       </c>
@@ -13469,7 +13471,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>17</v>
       </c>
@@ -13483,7 +13485,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>17</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>18</v>
       </c>
@@ -13511,7 +13513,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>18</v>
       </c>
@@ -13525,7 +13527,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>18</v>
       </c>
@@ -13539,7 +13541,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>18</v>
       </c>
@@ -13553,7 +13555,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>18</v>
       </c>
@@ -13567,7 +13569,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>18</v>
       </c>
@@ -13581,7 +13583,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>18</v>
       </c>
@@ -13595,7 +13597,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>18</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>18</v>
       </c>
@@ -13623,7 +13625,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>18</v>
       </c>
@@ -13637,7 +13639,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>18</v>
       </c>
@@ -13651,7 +13653,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>18</v>
       </c>
@@ -13665,7 +13667,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>18</v>
       </c>
@@ -13679,7 +13681,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>18</v>
       </c>
@@ -13693,7 +13695,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>19</v>
       </c>
@@ -13707,7 +13709,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>19</v>
       </c>
@@ -13721,7 +13723,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>19</v>
       </c>
@@ -13735,7 +13737,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>19</v>
       </c>
@@ -13749,7 +13751,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>19</v>
       </c>
@@ -13763,7 +13765,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>19</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>19</v>
       </c>
@@ -13791,7 +13793,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>19</v>
       </c>
@@ -13805,7 +13807,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>20</v>
       </c>
@@ -13819,7 +13821,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>20</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>20</v>
       </c>
@@ -13847,7 +13849,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>20</v>
       </c>
@@ -13861,7 +13863,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>20</v>
       </c>
@@ -13875,7 +13877,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>21</v>
       </c>
@@ -13889,7 +13891,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>21</v>
       </c>
@@ -13903,7 +13905,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>21</v>
       </c>
@@ -13917,7 +13919,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>21</v>
       </c>
@@ -13931,7 +13933,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>21</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>22</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>22</v>
       </c>
@@ -13973,7 +13975,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>22</v>
       </c>
@@ -13987,7 +13989,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>22</v>
       </c>
@@ -14001,7 +14003,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>22</v>
       </c>
@@ -14015,7 +14017,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>23</v>
       </c>
@@ -14029,7 +14031,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>23</v>
       </c>
@@ -14043,7 +14045,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>23</v>
       </c>
@@ -14057,7 +14059,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>23</v>
       </c>
@@ -14071,7 +14073,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>23</v>
       </c>
@@ -14085,7 +14087,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>23</v>
       </c>
@@ -14099,7 +14101,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>23</v>
       </c>
@@ -14113,7 +14115,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>24</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>24</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>24</v>
       </c>
@@ -14155,7 +14157,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>24</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>24</v>
       </c>
@@ -14183,7 +14185,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>24</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>24</v>
       </c>
@@ -14211,7 +14213,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>24</v>
       </c>
@@ -14225,7 +14227,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>24</v>
       </c>
@@ -14239,7 +14241,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>24</v>
       </c>
@@ -14253,7 +14255,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>24</v>
       </c>
@@ -14267,7 +14269,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>24</v>
       </c>
@@ -14281,7 +14283,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>24</v>
       </c>
@@ -14295,7 +14297,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>24</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>24</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>24</v>
       </c>
@@ -14337,7 +14339,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>25</v>
       </c>
@@ -14351,7 +14353,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>25</v>
       </c>
@@ -14365,7 +14367,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>25</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>25</v>
       </c>
@@ -14393,7 +14395,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>25</v>
       </c>
@@ -14407,7 +14409,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>25</v>
       </c>
@@ -14421,7 +14423,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>25</v>
       </c>
@@ -14435,7 +14437,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>25</v>
       </c>
@@ -14449,7 +14451,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>27</v>
       </c>
@@ -14463,7 +14465,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>27</v>
       </c>
@@ -14477,7 +14479,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>27</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>28</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>28</v>
       </c>
@@ -14519,7 +14521,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>28</v>
       </c>
@@ -14533,7 +14535,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>28</v>
       </c>
@@ -14547,7 +14549,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>28</v>
       </c>
@@ -14561,7 +14563,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>28</v>
       </c>
@@ -14575,7 +14577,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>28</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>29</v>
       </c>
@@ -14603,7 +14605,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>29</v>
       </c>
@@ -14617,7 +14619,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>29</v>
       </c>
@@ -14631,7 +14633,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>29</v>
       </c>
@@ -14645,7 +14647,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>29</v>
       </c>
@@ -14659,7 +14661,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>29</v>
       </c>
@@ -14673,7 +14675,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>29</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>29</v>
       </c>
@@ -14701,7 +14703,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>29</v>
       </c>
@@ -14715,7 +14717,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>30</v>
       </c>
@@ -14729,7 +14731,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>30</v>
       </c>
@@ -14743,7 +14745,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>30</v>
       </c>
@@ -14757,7 +14759,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>30</v>
       </c>
@@ -14771,7 +14773,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>30</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>30</v>
       </c>
@@ -14799,7 +14801,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>30</v>
       </c>
@@ -14813,7 +14815,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>30</v>
       </c>
@@ -14827,7 +14829,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>30</v>
       </c>
@@ -14841,7 +14843,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>30</v>
       </c>
@@ -14855,7 +14857,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>30</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>30</v>
       </c>
@@ -14883,7 +14885,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>30</v>
       </c>
@@ -14897,7 +14899,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>31</v>
       </c>
@@ -14911,7 +14913,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>31</v>
       </c>
@@ -14925,7 +14927,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>31</v>
       </c>
@@ -14939,7 +14941,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>31</v>
       </c>
@@ -14953,7 +14955,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>31</v>
       </c>
@@ -14967,7 +14969,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>32</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>32</v>
       </c>
@@ -14995,7 +14997,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>32</v>
       </c>
@@ -15009,7 +15011,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>32</v>
       </c>
@@ -15023,7 +15025,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>32</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>32</v>
       </c>
@@ -15051,7 +15053,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>32</v>
       </c>
@@ -15065,7 +15067,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>32</v>
       </c>
@@ -15079,7 +15081,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>32</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>32</v>
       </c>
@@ -15107,7 +15109,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>32</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>32</v>
       </c>
@@ -15135,7 +15137,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>32</v>
       </c>
@@ -15149,7 +15151,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>32</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>32</v>
       </c>
@@ -15177,7 +15179,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>32</v>
       </c>
@@ -15191,7 +15193,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>32</v>
       </c>
@@ -15205,7 +15207,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>32</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>32</v>
       </c>
@@ -15233,7 +15235,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>32</v>
       </c>
@@ -15247,7 +15249,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>32</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>32</v>
       </c>
@@ -15275,7 +15277,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>32</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>32</v>
       </c>
@@ -15303,7 +15305,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>32</v>
       </c>
@@ -15317,7 +15319,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>32</v>
       </c>
@@ -15331,7 +15333,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>32</v>
       </c>
@@ -15345,7 +15347,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>32</v>
       </c>
@@ -15359,7 +15361,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>32</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>32</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>32</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>32</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>32</v>
       </c>
@@ -15429,7 +15431,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>32</v>
       </c>
@@ -15443,7 +15445,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>32</v>
       </c>
@@ -15457,7 +15459,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>32</v>
       </c>
@@ -15471,7 +15473,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>32</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>32</v>
       </c>
@@ -15499,7 +15501,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>32</v>
       </c>
@@ -15513,7 +15515,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>32</v>
       </c>
@@ -15527,7 +15529,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>32</v>
       </c>
@@ -15541,7 +15543,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>32</v>
       </c>
@@ -15555,7 +15557,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>32</v>
       </c>
@@ -15569,7 +15571,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>32</v>
       </c>
@@ -15583,7 +15585,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>32</v>
       </c>
@@ -15597,7 +15599,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>32</v>
       </c>
@@ -15611,7 +15613,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>32</v>
       </c>
@@ -15625,7 +15627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>32</v>
       </c>
@@ -15639,7 +15641,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>32</v>
       </c>
@@ -15653,7 +15655,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>32</v>
       </c>
@@ -15667,7 +15669,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>32</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>32</v>
       </c>
@@ -15695,7 +15697,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>32</v>
       </c>
@@ -15709,7 +15711,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>32</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>32</v>
       </c>
@@ -15737,7 +15739,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>32</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>32</v>
       </c>
@@ -15765,7 +15767,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>32</v>
       </c>
@@ -15779,7 +15781,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>32</v>
       </c>
@@ -15793,7 +15795,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>32</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>32</v>
       </c>
@@ -15821,7 +15823,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>32</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>32</v>
       </c>
@@ -15849,7 +15851,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>32</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>32</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>32</v>
       </c>
@@ -15891,7 +15893,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>32</v>
       </c>
@@ -15905,7 +15907,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>32</v>
       </c>
@@ -15919,7 +15921,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>32</v>
       </c>
@@ -15933,7 +15935,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>32</v>
       </c>
@@ -15947,7 +15949,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>32</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>32</v>
       </c>
@@ -15975,7 +15977,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>32</v>
       </c>
@@ -15989,7 +15991,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>32</v>
       </c>
@@ -16003,7 +16005,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>32</v>
       </c>
@@ -16017,7 +16019,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>32</v>
       </c>
@@ -16031,7 +16033,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>32</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>32</v>
       </c>
@@ -16059,7 +16061,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>32</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>32</v>
       </c>
@@ -16087,7 +16089,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>32</v>
       </c>
@@ -16101,7 +16103,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>32</v>
       </c>
@@ -16115,7 +16117,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>32</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>32</v>
       </c>
@@ -16143,7 +16145,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>32</v>
       </c>
@@ -16157,7 +16159,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>32</v>
       </c>
@@ -16171,7 +16173,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>32</v>
       </c>
@@ -16185,7 +16187,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>32</v>
       </c>
@@ -16199,7 +16201,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>32</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>32</v>
       </c>
@@ -16227,7 +16229,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>32</v>
       </c>
@@ -16241,7 +16243,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>32</v>
       </c>
@@ -16255,7 +16257,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="353" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>32</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="354" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>32</v>
       </c>
@@ -16283,7 +16285,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="355" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>32</v>
       </c>
@@ -16297,7 +16299,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="356" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>32</v>
       </c>
@@ -16311,7 +16313,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="357" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>32</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="358" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>32</v>
       </c>
@@ -24529,7 +24531,7 @@
       <c r="XFA358" s="17"/>
       <c r="XFC358" s="17"/>
     </row>
-    <row r="359" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>32</v>
       </c>
@@ -24543,7 +24545,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="360" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>32</v>
       </c>
@@ -24557,7 +24559,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="361" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>32</v>
       </c>
@@ -24571,7 +24573,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="362" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>32</v>
       </c>
@@ -24585,7 +24587,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="363" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>32</v>
       </c>
@@ -24599,7 +24601,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="364" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>32</v>
       </c>
@@ -24613,7 +24615,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="365" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>32</v>
       </c>
@@ -24627,7 +24629,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="366" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>32</v>
       </c>
@@ -24641,7 +24643,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="367" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>32</v>
       </c>
@@ -24655,7 +24657,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="368" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>32</v>
       </c>
@@ -24669,7 +24671,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>32</v>
       </c>
@@ -24683,7 +24685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>32</v>
       </c>
@@ -24697,7 +24699,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>32</v>
       </c>
@@ -24711,7 +24713,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>32</v>
       </c>
@@ -24725,7 +24727,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>32</v>
       </c>
@@ -24739,7 +24741,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>32</v>
       </c>
@@ -24753,7 +24755,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>32</v>
       </c>
@@ -24767,7 +24769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>32</v>
       </c>
@@ -24781,7 +24783,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>32</v>
       </c>
@@ -24795,7 +24797,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>32</v>
       </c>
@@ -24809,7 +24811,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>32</v>
       </c>
@@ -24823,7 +24825,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>32</v>
       </c>
@@ -24837,7 +24839,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>32</v>
       </c>
@@ -24851,7 +24853,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>32</v>
       </c>
@@ -24865,7 +24867,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>32</v>
       </c>
@@ -24879,7 +24881,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>32</v>
       </c>
@@ -24893,7 +24895,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>32</v>
       </c>
@@ -24907,7 +24909,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>32</v>
       </c>
@@ -24921,7 +24923,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>32</v>
       </c>
@@ -24935,7 +24937,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>32</v>
       </c>
@@ -24949,7 +24951,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>32</v>
       </c>
@@ -24963,7 +24965,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>32</v>
       </c>
@@ -24977,7 +24979,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>32</v>
       </c>
@@ -24991,7 +24993,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>32</v>
       </c>
@@ -25005,7 +25007,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>32</v>
       </c>
@@ -25019,7 +25021,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>32</v>
       </c>
@@ -25033,7 +25035,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>32</v>
       </c>
@@ -25047,7 +25049,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>32</v>
       </c>
@@ -25061,7 +25063,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>32</v>
       </c>
@@ -25075,7 +25077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>32</v>
       </c>
@@ -25089,7 +25091,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>32</v>
       </c>
@@ -25103,7 +25105,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>32</v>
       </c>
@@ -25117,7 +25119,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>32</v>
       </c>
@@ -25131,7 +25133,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>32</v>
       </c>
@@ -25145,7 +25147,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>32</v>
       </c>
@@ -25159,7 +25161,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>32</v>
       </c>
@@ -25173,7 +25175,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>32</v>
       </c>
@@ -25187,7 +25189,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>32</v>
       </c>
@@ -25201,7 +25203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>32</v>
       </c>
@@ -25215,7 +25217,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>32</v>
       </c>
@@ -25229,7 +25231,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>32</v>
       </c>
@@ -25243,7 +25245,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>32</v>
       </c>
@@ -25257,7 +25259,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>32</v>
       </c>
@@ -25271,7 +25273,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>32</v>
       </c>
@@ -25285,7 +25287,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>32</v>
       </c>
@@ -25299,7 +25301,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>32</v>
       </c>
@@ -25313,7 +25315,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>32</v>
       </c>
@@ -25327,7 +25329,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>32</v>
       </c>
@@ -25341,7 +25343,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>32</v>
       </c>
@@ -25355,7 +25357,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>32</v>
       </c>
@@ -25369,7 +25371,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>32</v>
       </c>
@@ -25383,7 +25385,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>32</v>
       </c>
@@ -25397,7 +25399,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>32</v>
       </c>
@@ -25411,7 +25413,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>32</v>
       </c>
@@ -25425,7 +25427,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>32</v>
       </c>
@@ -25439,7 +25441,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>32</v>
       </c>
@@ -25453,7 +25455,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>32</v>
       </c>
@@ -25467,7 +25469,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>32</v>
       </c>
@@ -25481,7 +25483,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>32</v>
       </c>
@@ -25495,7 +25497,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>32</v>
       </c>
@@ -25509,7 +25511,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>32</v>
       </c>
@@ -25523,7 +25525,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>32</v>
       </c>
@@ -25537,7 +25539,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>32</v>
       </c>
@@ -25551,7 +25553,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>32</v>
       </c>
@@ -25565,7 +25567,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>32</v>
       </c>
@@ -25579,7 +25581,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>32</v>
       </c>
@@ -25593,7 +25595,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>32</v>
       </c>
@@ -25607,7 +25609,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>32</v>
       </c>
@@ -25621,7 +25623,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>32</v>
       </c>
@@ -25635,7 +25637,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>32</v>
       </c>
@@ -25649,7 +25651,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>32</v>
       </c>
@@ -25663,7 +25665,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>32</v>
       </c>
@@ -25677,7 +25679,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>32</v>
       </c>
@@ -25691,7 +25693,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>32</v>
       </c>
@@ -25705,7 +25707,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>32</v>
       </c>
@@ -25719,7 +25721,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>32</v>
       </c>
@@ -25733,7 +25735,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>32</v>
       </c>
@@ -25747,7 +25749,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>32</v>
       </c>
@@ -25761,7 +25763,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>32</v>
       </c>
@@ -25775,7 +25777,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>32</v>
       </c>
@@ -25789,7 +25791,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>32</v>
       </c>
@@ -25803,7 +25805,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>32</v>
       </c>
@@ -25817,7 +25819,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>32</v>
       </c>
@@ -25831,7 +25833,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>32</v>
       </c>
@@ -25845,7 +25847,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>32</v>
       </c>
@@ -25859,7 +25861,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>32</v>
       </c>
@@ -25873,7 +25875,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>32</v>
       </c>
@@ -25887,7 +25889,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>32</v>
       </c>
@@ -25901,7 +25903,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>32</v>
       </c>
@@ -25915,7 +25917,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>32</v>
       </c>
@@ -25929,7 +25931,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>32</v>
       </c>
@@ -25943,7 +25945,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>32</v>
       </c>
@@ -25957,7 +25959,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>32</v>
       </c>
@@ -25971,7 +25973,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>32</v>
       </c>
@@ -25985,7 +25987,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>32</v>
       </c>
@@ -25999,7 +26001,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>32</v>
       </c>
@@ -26013,7 +26015,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>32</v>
       </c>
@@ -26027,7 +26029,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>32</v>
       </c>
@@ -26041,7 +26043,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>32</v>
       </c>
@@ -26055,7 +26057,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>32</v>
       </c>
@@ -26069,7 +26071,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>32</v>
       </c>
@@ -26083,7 +26085,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>32</v>
       </c>
@@ -26097,7 +26099,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>32</v>
       </c>
@@ -26111,7 +26113,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>32</v>
       </c>
@@ -26125,7 +26127,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>32</v>
       </c>
@@ -26139,7 +26141,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>32</v>
       </c>
@@ -26153,7 +26155,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>32</v>
       </c>
@@ -26167,7 +26169,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>32</v>
       </c>
@@ -26181,7 +26183,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>32</v>
       </c>
@@ -26195,7 +26197,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>32</v>
       </c>
@@ -26209,7 +26211,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>32</v>
       </c>
@@ -26223,7 +26225,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>32</v>
       </c>
@@ -26237,7 +26239,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>32</v>
       </c>
@@ -26251,7 +26253,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>32</v>
       </c>
@@ -26265,7 +26267,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>32</v>
       </c>
@@ -26279,7 +26281,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>32</v>
       </c>
@@ -26293,7 +26295,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>32</v>
       </c>
@@ -26307,7 +26309,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>32</v>
       </c>
@@ -26321,7 +26323,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>32</v>
       </c>
@@ -26335,7 +26337,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>32</v>
       </c>
@@ -26349,7 +26351,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>33</v>
       </c>
@@ -26363,7 +26365,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>33</v>
       </c>
@@ -26377,7 +26379,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>33</v>
       </c>
@@ -26391,7 +26393,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>33</v>
       </c>
@@ -26405,7 +26407,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>33</v>
       </c>
@@ -26419,7 +26421,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>33</v>
       </c>
@@ -26433,7 +26435,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>33</v>
       </c>
@@ -26447,7 +26449,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>33</v>
       </c>
@@ -26461,7 +26463,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>33</v>
       </c>
@@ -26475,7 +26477,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>33</v>
       </c>
@@ -26489,7 +26491,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>33</v>
       </c>
@@ -26503,7 +26505,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>33</v>
       </c>
@@ -26517,7 +26519,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>33</v>
       </c>
@@ -26531,7 +26533,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>33</v>
       </c>
@@ -26545,7 +26547,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>33</v>
       </c>
@@ -26559,7 +26561,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>33</v>
       </c>
@@ -26573,7 +26575,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>33</v>
       </c>
@@ -26587,7 +26589,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>33</v>
       </c>
@@ -26601,7 +26603,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>33</v>
       </c>
@@ -26615,7 +26617,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>33</v>
       </c>
@@ -26629,7 +26631,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>33</v>
       </c>
@@ -26643,7 +26645,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>33</v>
       </c>
@@ -26657,7 +26659,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>33</v>
       </c>
@@ -26671,7 +26673,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>33</v>
       </c>
@@ -26685,7 +26687,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>33</v>
       </c>
@@ -26699,7 +26701,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>33</v>
       </c>
@@ -26713,7 +26715,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>33</v>
       </c>
@@ -26727,7 +26729,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>33</v>
       </c>
@@ -26741,7 +26743,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>33</v>
       </c>
@@ -26755,7 +26757,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>33</v>
       </c>
@@ -26769,7 +26771,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>33</v>
       </c>
@@ -26783,7 +26785,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>33</v>
       </c>
@@ -26797,7 +26799,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>33</v>
       </c>
@@ -26811,7 +26813,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>33</v>
       </c>
@@ -26825,7 +26827,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>33</v>
       </c>
@@ -26839,7 +26841,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>33</v>
       </c>
@@ -26853,7 +26855,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>33</v>
       </c>
@@ -26867,7 +26869,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>33</v>
       </c>
@@ -26881,7 +26883,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>33</v>
       </c>
@@ -26895,7 +26897,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>33</v>
       </c>
@@ -26909,7 +26911,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>33</v>
       </c>
@@ -26923,7 +26925,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>33</v>
       </c>
@@ -26937,7 +26939,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>33</v>
       </c>
@@ -26951,7 +26953,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>33</v>
       </c>
@@ -26965,7 +26967,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>33</v>
       </c>
@@ -26979,7 +26981,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>33</v>
       </c>
@@ -26993,7 +26995,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>33</v>
       </c>
@@ -27007,7 +27009,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>33</v>
       </c>
@@ -27021,7 +27023,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>33</v>
       </c>
@@ -27035,7 +27037,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>33</v>
       </c>
@@ -27049,7 +27051,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>33</v>
       </c>
@@ -27063,7 +27065,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>33</v>
       </c>
@@ -27077,7 +27079,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>33</v>
       </c>
@@ -27091,7 +27093,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>33</v>
       </c>
@@ -27105,7 +27107,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>33</v>
       </c>
@@ -27119,7 +27121,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>33</v>
       </c>
@@ -27133,7 +27135,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>33</v>
       </c>
@@ -27147,7 +27149,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>33</v>
       </c>
@@ -27161,7 +27163,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>33</v>
       </c>
@@ -27175,7 +27177,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>33</v>
       </c>
@@ -27189,7 +27191,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>33</v>
       </c>
@@ -27203,7 +27205,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>33</v>
       </c>
@@ -27217,7 +27219,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>33</v>
       </c>
@@ -27231,7 +27233,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>34</v>
       </c>
@@ -27245,7 +27247,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="16">
         <v>34</v>
       </c>
@@ -27259,7 +27261,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="16">
         <v>34</v>
       </c>
@@ -27273,7 +27275,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="16">
         <v>34</v>
       </c>
@@ -27287,7 +27289,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="16">
         <v>34</v>
       </c>
@@ -27301,7 +27303,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="16">
         <v>34</v>
       </c>
@@ -27315,7 +27317,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="16">
         <v>34</v>
       </c>
@@ -27329,7 +27331,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="16">
         <v>35</v>
       </c>
@@ -27343,7 +27345,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="16">
         <v>35</v>
       </c>
@@ -27357,7 +27359,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="16">
         <v>36</v>
       </c>
@@ -27371,7 +27373,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="16">
         <v>36</v>
       </c>
@@ -27385,7 +27387,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="16">
         <v>36</v>
       </c>
@@ -27399,7 +27401,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="16">
         <v>37</v>
       </c>
@@ -27413,7 +27415,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="16">
         <v>37</v>
       </c>
@@ -27427,7 +27429,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="16">
         <v>37</v>
       </c>
@@ -27441,7 +27443,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="16">
         <v>38</v>
       </c>
@@ -27455,7 +27457,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="16">
         <v>38</v>
       </c>
@@ -27469,7 +27471,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="16">
         <v>38</v>
       </c>
@@ -27483,7 +27485,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="16">
         <v>38</v>
       </c>
@@ -27497,7 +27499,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="16">
         <v>38</v>
       </c>
@@ -27511,7 +27513,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="16">
         <v>38</v>
       </c>
@@ -27525,7 +27527,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="16">
         <v>38</v>
       </c>
@@ -27539,7 +27541,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="16">
         <v>38</v>
       </c>
@@ -27553,7 +27555,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="16">
         <v>38</v>
       </c>
@@ -27567,7 +27569,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="16">
         <v>38</v>
       </c>
@@ -27581,7 +27583,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="16">
         <v>38</v>
       </c>
@@ -27595,7 +27597,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="16">
         <v>38</v>
       </c>
@@ -27609,7 +27611,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="16">
         <v>38</v>
       </c>
@@ -27623,7 +27625,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="16">
         <v>38</v>
       </c>
@@ -27637,7 +27639,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="16">
         <v>38</v>
       </c>
@@ -27651,7 +27653,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="16">
         <v>38</v>
       </c>
@@ -27665,7 +27667,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="16">
         <v>38</v>
       </c>
@@ -27679,7 +27681,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="16">
         <v>38</v>
       </c>
@@ -27693,7 +27695,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="16">
         <v>38</v>
       </c>
@@ -27707,7 +27709,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="16">
         <v>38</v>
       </c>
@@ -27721,7 +27723,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="16">
         <v>38</v>
       </c>
@@ -27735,7 +27737,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="16">
         <v>38</v>
       </c>
@@ -27749,7 +27751,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="16">
         <v>38</v>
       </c>
@@ -27763,7 +27765,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="16">
         <v>38</v>
       </c>
@@ -27777,7 +27779,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="16">
         <v>38</v>
       </c>
@@ -27791,7 +27793,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="16">
         <v>38</v>
       </c>
@@ -27805,7 +27807,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="16">
         <v>38</v>
       </c>
@@ -27819,7 +27821,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="16">
         <v>38</v>
       </c>
@@ -27833,7 +27835,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="16">
         <v>38</v>
       </c>
@@ -27847,7 +27849,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="16">
         <v>38</v>
       </c>
@@ -27861,7 +27863,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="16">
         <v>38</v>
       </c>
@@ -27875,7 +27877,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="16">
         <v>38</v>
       </c>
@@ -27889,7 +27891,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="16">
         <v>38</v>
       </c>
@@ -27903,7 +27905,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="16">
         <v>38</v>
       </c>
@@ -27917,7 +27919,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="16">
         <v>38</v>
       </c>
@@ -27931,7 +27933,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="16">
         <v>38</v>
       </c>
@@ -27945,7 +27947,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="16">
         <v>38</v>
       </c>
@@ -27959,7 +27961,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="16">
         <v>38</v>
       </c>
@@ -27973,7 +27975,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="16">
         <v>38</v>
       </c>
@@ -27987,7 +27989,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="16">
         <v>38</v>
       </c>
@@ -28001,7 +28003,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="16">
         <v>38</v>
       </c>
@@ -28015,7 +28017,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="16">
         <v>38</v>
       </c>
@@ -28029,7 +28031,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="16">
         <v>38</v>
       </c>
@@ -28043,7 +28045,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="610" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="16">
         <v>38</v>
       </c>
@@ -28057,7 +28059,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="611" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="16">
         <v>38</v>
       </c>
@@ -28071,7 +28073,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="612" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="16">
         <v>38</v>
       </c>
@@ -28085,7 +28087,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="613" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A613" s="16">
         <v>38</v>
       </c>
@@ -28099,7 +28101,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="614" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A614" s="16">
         <v>38</v>
       </c>
@@ -28113,7 +28115,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="615" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A615" s="16">
         <v>38</v>
       </c>
@@ -28127,7 +28129,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="616" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A616" s="16">
         <v>39</v>
       </c>
@@ -28141,7 +28143,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="16">
         <v>39</v>
       </c>
@@ -28155,7 +28157,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="16">
         <v>39</v>
       </c>
@@ -28169,7 +28171,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="16">
         <v>40</v>
       </c>
@@ -28183,7 +28185,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="16">
         <v>40</v>
       </c>
@@ -28197,7 +28199,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="16">
         <v>40</v>
       </c>
@@ -28211,7 +28213,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="16">
         <v>41</v>
       </c>
@@ -28225,7 +28227,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="16">
         <v>41</v>
       </c>
@@ -28239,7 +28241,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="16">
         <v>41</v>
       </c>
@@ -28253,7 +28255,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="16">
         <v>42</v>
       </c>
@@ -28267,7 +28269,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="16">
         <v>42</v>
       </c>
@@ -28281,7 +28283,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="16">
         <v>42</v>
       </c>
@@ -28295,7 +28297,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="16">
         <v>42</v>
       </c>
@@ -28309,7 +28311,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="16">
         <v>43</v>
       </c>
@@ -28323,7 +28325,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="16">
         <v>43</v>
       </c>
@@ -28337,7 +28339,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="16">
         <v>43</v>
       </c>
@@ -28351,7 +28353,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="16">
         <v>43</v>
       </c>
@@ -28365,7 +28367,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="16">
         <v>44</v>
       </c>
@@ -28379,7 +28381,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="16">
         <v>44</v>
       </c>
@@ -28393,7 +28395,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="16">
         <v>44</v>
       </c>
@@ -28407,7 +28409,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="16">
         <v>45</v>
       </c>
@@ -28421,7 +28423,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="16">
         <v>45</v>
       </c>
@@ -28435,7 +28437,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="16">
         <v>45</v>
       </c>
@@ -28449,7 +28451,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="16">
         <v>46</v>
       </c>
@@ -28457,13 +28459,13 @@
         <v>205</v>
       </c>
       <c r="C639" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D639" s="16" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="16">
         <v>46</v>
       </c>
@@ -28471,13 +28473,13 @@
         <v>205</v>
       </c>
       <c r="C640" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D640" s="16" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="16">
         <v>46</v>
       </c>
@@ -28485,24 +28487,38 @@
         <v>205</v>
       </c>
       <c r="C641" s="16">
+        <v>1</v>
+      </c>
+      <c r="D641" s="16" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" s="16">
+        <v>46</v>
+      </c>
+      <c r="B642" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C642" s="16">
         <v>99</v>
       </c>
-      <c r="D641" s="16" t="s">
+      <c r="D642" s="16" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B642" s="16"/>
-      <c r="C642" s="16"/>
-      <c r="D642" s="16"/>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B643" s="16"/>
       <c r="C643" s="16"/>
       <c r="D643" s="16"/>
     </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B644" s="16"/>
+      <c r="C644" s="16"/>
+      <c r="D644" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D641" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:D642" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -28518,17 +28534,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.265625" customWidth="1"/>
-    <col min="2" max="2" width="86.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.73046875" style="14"/>
-    <col min="5" max="5" width="13.86328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="86.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="14"/>
+    <col min="5" max="5" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>1020</v>
       </c>
@@ -28540,7 +28556,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
         <v>322</v>
       </c>
@@ -28566,7 +28582,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>994</v>
       </c>
@@ -28578,7 +28594,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -28604,7 +28620,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -28630,7 +28646,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -28656,7 +28672,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -28682,7 +28698,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -28708,7 +28724,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -28734,7 +28750,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -28760,7 +28776,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -28786,7 +28802,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -28812,7 +28828,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>995</v>
       </c>
@@ -28824,7 +28840,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -28850,7 +28866,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -28876,7 +28892,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -28902,7 +28918,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -28928,7 +28944,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -28954,7 +28970,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -28980,7 +28996,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -29006,7 +29022,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -29032,7 +29048,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -29058,7 +29074,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>996</v>
       </c>
@@ -29070,7 +29086,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
@@ -29096,7 +29112,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11</v>
       </c>
@@ -29122,7 +29138,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -29148,7 +29164,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -29174,7 +29190,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -29200,7 +29216,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15</v>
       </c>
@@ -29226,7 +29242,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
@@ -29252,7 +29268,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>997</v>
       </c>
@@ -29264,7 +29280,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>18</v>
       </c>
@@ -29290,7 +29306,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>19</v>
       </c>
@@ -29316,7 +29332,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
@@ -29342,7 +29358,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>21</v>
       </c>
@@ -29368,7 +29384,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>22</v>
       </c>
@@ -29394,7 +29410,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>63</v>
       </c>
@@ -29420,7 +29436,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>64</v>
       </c>
@@ -29446,7 +29462,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>998</v>
       </c>
@@ -29458,7 +29474,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>23</v>
       </c>
@@ -29484,7 +29500,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>999</v>
       </c>
@@ -29496,7 +29512,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="26"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24</v>
       </c>
@@ -29522,7 +29538,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>25</v>
       </c>
@@ -29548,7 +29564,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26</v>
       </c>
@@ -29574,7 +29590,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>27</v>
       </c>
@@ -29600,7 +29616,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>28</v>
       </c>
@@ -29626,7 +29642,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>29</v>
       </c>
@@ -29652,7 +29668,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>30</v>
       </c>
@@ -29678,7 +29694,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>31</v>
       </c>
@@ -29704,7 +29720,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>32</v>
       </c>
@@ -29730,7 +29746,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>33</v>
       </c>
@@ -29756,7 +29772,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>34</v>
       </c>
@@ -29782,7 +29798,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>35</v>
       </c>
@@ -29808,7 +29824,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>36</v>
       </c>
@@ -29834,7 +29850,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>1000</v>
       </c>
@@ -29846,7 +29862,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>37</v>
       </c>
@@ -29872,7 +29888,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>38</v>
       </c>
@@ -29898,7 +29914,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>39</v>
       </c>
@@ -29924,7 +29940,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>40</v>
       </c>
@@ -29950,7 +29966,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>41</v>
       </c>
@@ -29976,7 +29992,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>42</v>
       </c>
@@ -30002,7 +30018,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>43</v>
       </c>
@@ -30028,7 +30044,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>44</v>
       </c>
@@ -30054,7 +30070,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>45</v>
       </c>
@@ -30080,7 +30096,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>46</v>
       </c>
@@ -30106,7 +30122,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>47</v>
       </c>
@@ -30132,7 +30148,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>48</v>
       </c>
@@ -30158,7 +30174,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>49</v>
       </c>
@@ -30184,7 +30200,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>50</v>
       </c>
@@ -30210,7 +30226,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>51</v>
       </c>
@@ -30236,7 +30252,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>52</v>
       </c>
@@ -30262,7 +30278,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>1002</v>
       </c>
@@ -30274,7 +30290,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="26"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>53</v>
       </c>
@@ -30300,7 +30316,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -30326,7 +30342,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>55</v>
       </c>
@@ -30352,7 +30368,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>56</v>
       </c>
@@ -30378,7 +30394,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>57</v>
       </c>
@@ -30404,7 +30420,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
         <v>1003</v>
       </c>
@@ -30416,7 +30432,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="26"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>53</v>
       </c>
@@ -30442,7 +30458,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>54</v>
       </c>
@@ -30468,7 +30484,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>55</v>
       </c>
@@ -30494,7 +30510,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>56</v>
       </c>
@@ -30520,7 +30536,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>57</v>
       </c>
@@ -30546,7 +30562,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="s">
         <v>1001</v>
       </c>
@@ -30558,7 +30574,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="26"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>58</v>
       </c>
@@ -30584,7 +30600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -30610,7 +30626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>60</v>
       </c>
@@ -30636,7 +30652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>61</v>
       </c>
@@ -30662,7 +30678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>62</v>
       </c>
